--- a/作业合集/风数-20191015/stocks2.xlsx
+++ b/作业合集/风数-20191015/stocks2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\MFE_S1\MFE_S1\作业合集\风数-20191015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAD4379-00E0-4C43-B458-5AAAEE645F49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A82625-F314-42A0-8C18-3917288F198D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7610" yWindow="1300" windowWidth="12020" windowHeight="9550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2480" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yield" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -632,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFE6616-6034-48F4-BAF8-4D50B0612C6F}">
   <dimension ref="A1:J243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8408,8 +8409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAE8C02-5064-44AD-8725-802FF99D1BCA}">
   <dimension ref="H8:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="F1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
